--- a/election_votar_data/LOHAGARA/AMIRABAD/152590/152590_com_732_male_without_photo_41_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/AMIRABAD/152590/152590_com_732_male_without_photo_41_2025-11-24.xlsx
@@ -30681,7 +30681,7 @@
       </c>
       <c r="F720" s="3" t="inlineStr">
         <is>
-          <t>কৃষক জন্ম তারিখ: ২১/০১/১৯৮৪</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G720" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/AMIRABAD/152590/152590_com_732_male_without_photo_41_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/AMIRABAD/152590/152590_com_732_male_without_photo_41_2025-11-24.xlsx
@@ -30681,7 +30681,7 @@
       </c>
       <c r="F720" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ: ২১/০১/১৯৮৪</t>
         </is>
       </c>
       <c r="G720" s="3" t="inlineStr">
